--- a/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_5_ASC.xlsx
+++ b/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_5_ASC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarciar\Documents\CAIXA\AutoHotKeyEGR\Datos_Prueba\Resultados\Test_FMT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9550834-A99D-463B-9903-FEBB5BF5B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4C9942-233E-404C-8F77-9EABE2B22CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{F5B1365A-53D4-4809-9D41-818CE8287096}"/>
+    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{40D97465-CFDE-4053-B2F2-863330BE6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D88993-7FBB-49B1-9A95-6265B9BEDD71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856101C8-DB27-4CD3-B591-42DE87B3F9D8}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
